--- a/supplement.xlsx
+++ b/supplement.xlsx
@@ -1,38 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liam/Documents/scripts/lincRNA/clean_run/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/la466/Documents/scripts/lincRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D091373F-2268-4E4F-875E-587C89F85CA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5F64D2-028E-0F43-A3B2-BD4F79E01F4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{A83AC98B-25A7-6245-B518-29FF0FB3C8B5}"/>
+    <workbookView xWindow="4160" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{A83AC98B-25A7-6245-B518-29FF0FB3C8B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet Key" sheetId="2" r:id="rId1"/>
+    <sheet name="Supplementary Spreadsheet 1" sheetId="4" r:id="rId2"/>
+    <sheet name="Supplementary Spreadsheet 2" sheetId="5" r:id="rId3"/>
+    <sheet name="Supplementary Spreadsheet 3" sheetId="6" r:id="rId4"/>
+    <sheet name="Supplementary Spreadsheet 4" sheetId="7" r:id="rId5"/>
+    <sheet name="Supplementary Spreadsheet 5" sheetId="1" r:id="rId6"/>
+    <sheet name="Supplementay Spreadsheet 6" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+  <si>
+    <t>run_number</t>
+  </si>
+  <si>
+    <t>seq_count</t>
+  </si>
+  <si>
+    <t>gc</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>median_simulated_density</t>
+  </si>
+  <si>
+    <t>normalised_density</t>
+  </si>
+  <si>
+    <t>p_value</t>
+  </si>
+  <si>
+    <t>adj_p_value</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 1</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 2</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 3</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 4</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 5</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 6</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 7</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 8</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 9</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 10</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 11</t>
+  </si>
+  <si>
+    <t>Stop codon densities in the reduced lincRNA set after ESE hits have been removed</t>
+  </si>
+  <si>
+    <t>Stop codon densities in the extended lincRNA set after ESE hits have been removed</t>
+  </si>
+  <si>
+    <t>data_points</t>
+  </si>
+  <si>
+    <t>depletions</t>
+  </si>
+  <si>
+    <t>depletions_binomial_p</t>
+  </si>
+  <si>
+    <t>adj_depletions_binomial_p</t>
+  </si>
+  <si>
+    <t>significant_depletions</t>
+  </si>
+  <si>
+    <t>significant_depletions_binomial_p</t>
+  </si>
+  <si>
+    <t>adj_significant_depletions_binomial_p</t>
+  </si>
+  <si>
+    <t>Stop codon densities in the reduced lincRNA set compared with null sequences</t>
+  </si>
+  <si>
+    <t>Stop codon densities in the extended lincRNA set compared with null sequences</t>
+  </si>
+  <si>
+    <t>Stop codon densities within gene comparisons in the reduced lincRNA set compared with null sequences</t>
+  </si>
+  <si>
+    <t>Stop codon densities within gene comparisons in the extended lincRNA set compared with null sequences</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -40,16 +147,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -57,12 +178,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,13 +508,1907 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7039D428-3699-574F-9066-00514466FA2E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3075F3E-581B-054A-9F79-F7D7DEF3BB90}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10DEDB9-94DD-F04E-8F1C-E72F60C298F7}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>180</v>
+      </c>
+      <c r="C2">
+        <v>0.42421535999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.15245297999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.18063850000000001</v>
+      </c>
+      <c r="F2">
+        <v>-0.1559133</v>
+      </c>
+      <c r="G2">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H2">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>180</v>
+      </c>
+      <c r="C3">
+        <v>0.42420308000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.15318159000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.18022023000000001</v>
+      </c>
+      <c r="F3">
+        <v>-0.14985899999999999</v>
+      </c>
+      <c r="G3">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H3">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <v>0.42489192999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.15303486999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.18007775000000001</v>
+      </c>
+      <c r="F4">
+        <v>-0.15018039999999999</v>
+      </c>
+      <c r="G4">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H4">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+      <c r="C5">
+        <v>0.4247515</v>
+      </c>
+      <c r="D5">
+        <v>0.15323708</v>
+      </c>
+      <c r="E5">
+        <v>0.18005215999999999</v>
+      </c>
+      <c r="F5">
+        <v>-0.14873349999999999</v>
+      </c>
+      <c r="G5">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H5">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>180</v>
+      </c>
+      <c r="C6">
+        <v>0.42587301</v>
+      </c>
+      <c r="D6">
+        <v>0.15252162</v>
+      </c>
+      <c r="E6">
+        <v>0.17899023999999999</v>
+      </c>
+      <c r="F6">
+        <v>-0.1476548</v>
+      </c>
+      <c r="G6">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H6">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>180</v>
+      </c>
+      <c r="C7">
+        <v>0.42665196999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.15223349999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.17934662000000001</v>
+      </c>
+      <c r="F7">
+        <v>-0.15131729999999999</v>
+      </c>
+      <c r="G7">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H7">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>180</v>
+      </c>
+      <c r="C8">
+        <v>0.42468256999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.15287667999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.18008930000000001</v>
+      </c>
+      <c r="F8">
+        <v>-0.15109880000000001</v>
+      </c>
+      <c r="G8">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H8">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>180</v>
+      </c>
+      <c r="C9">
+        <v>0.42323829000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.15325891</v>
+      </c>
+      <c r="E9">
+        <v>0.18089531</v>
+      </c>
+      <c r="F9">
+        <v>-0.152977</v>
+      </c>
+      <c r="G9">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H9">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>180</v>
+      </c>
+      <c r="C10">
+        <v>0.42489795000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.15287523</v>
+      </c>
+      <c r="E10">
+        <v>0.17987811000000001</v>
+      </c>
+      <c r="F10">
+        <v>-0.15012829999999999</v>
+      </c>
+      <c r="G10">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H10">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>180</v>
+      </c>
+      <c r="C11">
+        <v>0.42430330999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.15346803000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.18018616000000001</v>
+      </c>
+      <c r="F11">
+        <v>-0.14823439999999999</v>
+      </c>
+      <c r="G11">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H11">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D0B366-7D11-3947-A199-F1F538ABC132}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1921</v>
+      </c>
+      <c r="C2">
+        <v>0.46643879001211103</v>
+      </c>
+      <c r="D2">
+        <v>0.12961877734375701</v>
+      </c>
+      <c r="E2">
+        <v>0.15629725414395401</v>
+      </c>
+      <c r="F2">
+        <v>-0.170713822757766</v>
+      </c>
+      <c r="G2">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H2">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1921</v>
+      </c>
+      <c r="C3">
+        <v>0.46710683328929098</v>
+      </c>
+      <c r="D3">
+        <v>0.129433045000521</v>
+      </c>
+      <c r="E3">
+        <v>0.15620359167262199</v>
+      </c>
+      <c r="F3">
+        <v>-0.17130876522929001</v>
+      </c>
+      <c r="G3">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H3">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1921</v>
+      </c>
+      <c r="C4">
+        <v>0.46656899529052398</v>
+      </c>
+      <c r="D4">
+        <v>0.12956178450596501</v>
+      </c>
+      <c r="E4">
+        <v>0.15624699977342199</v>
+      </c>
+      <c r="F4">
+        <v>-0.17076448497168401</v>
+      </c>
+      <c r="G4">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H4">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1921</v>
+      </c>
+      <c r="C5">
+        <v>0.46635116635971002</v>
+      </c>
+      <c r="D5">
+        <v>0.12995918881260801</v>
+      </c>
+      <c r="E5">
+        <v>0.15665830057667501</v>
+      </c>
+      <c r="F5">
+        <v>-0.17041225706878799</v>
+      </c>
+      <c r="G5">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H5">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1921</v>
+      </c>
+      <c r="C6">
+        <v>0.46657155434737102</v>
+      </c>
+      <c r="D6">
+        <v>0.12959503359457</v>
+      </c>
+      <c r="E6">
+        <v>0.15642731137395499</v>
+      </c>
+      <c r="F6">
+        <v>-0.171557695838194</v>
+      </c>
+      <c r="G6">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H6">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1921</v>
+      </c>
+      <c r="C7">
+        <v>0.46654933623403699</v>
+      </c>
+      <c r="D7">
+        <v>0.130202308817784</v>
+      </c>
+      <c r="E7">
+        <v>0.15677592823820499</v>
+      </c>
+      <c r="F7">
+        <v>-0.16954806988694901</v>
+      </c>
+      <c r="G7">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H7">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1921</v>
+      </c>
+      <c r="C8">
+        <v>0.46597549819046102</v>
+      </c>
+      <c r="D8">
+        <v>0.129995250001438</v>
+      </c>
+      <c r="E8">
+        <v>0.156576382597999</v>
+      </c>
+      <c r="F8">
+        <v>-0.169704082191902</v>
+      </c>
+      <c r="G8">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H8">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1921</v>
+      </c>
+      <c r="C9">
+        <v>0.467035492830425</v>
+      </c>
+      <c r="D9">
+        <v>0.12953387169882999</v>
+      </c>
+      <c r="E9">
+        <v>0.15628735825531501</v>
+      </c>
+      <c r="F9">
+        <v>-0.171154684360071</v>
+      </c>
+      <c r="G9">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H9">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1921</v>
+      </c>
+      <c r="C10">
+        <v>0.46627883578963802</v>
+      </c>
+      <c r="D10">
+        <v>0.130370002960638</v>
+      </c>
+      <c r="E10">
+        <v>0.15679562748241799</v>
+      </c>
+      <c r="F10">
+        <v>-0.168567804740442</v>
+      </c>
+      <c r="G10">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H10">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1921</v>
+      </c>
+      <c r="C11">
+        <v>0.46652382748390597</v>
+      </c>
+      <c r="D11">
+        <v>0.12972132912158299</v>
+      </c>
+      <c r="E11">
+        <v>0.15649471108683499</v>
+      </c>
+      <c r="F11">
+        <v>-0.171104323812827</v>
+      </c>
+      <c r="G11">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H11">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34BF0FA-1C8D-4D4E-ADA1-2ACD211B6CEF}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>180</v>
+      </c>
+      <c r="C2">
+        <v>161</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.8261944913168601E-185</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.0871500843703403E-183</v>
+      </c>
+      <c r="F2">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6.4518247461986099E-31</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1.1613284543157499E-28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>180</v>
+      </c>
+      <c r="C3">
+        <v>161</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.8261944913168601E-185</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.0871500843703403E-183</v>
+      </c>
+      <c r="F3">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7.0006302817886405E-32</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.26011345072195E-29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <v>161</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.8261944913168601E-185</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.0871500843703403E-183</v>
+      </c>
+      <c r="F4">
+        <v>57</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5.7983868756418101E-30</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.04370963761552E-27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+      <c r="C5">
+        <v>161</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.8261944913168601E-185</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.0871500843703403E-183</v>
+      </c>
+      <c r="F5">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.3390898787819197E-28</v>
+      </c>
+      <c r="H5" s="2">
+        <v>7.8103617818074601E-26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>180</v>
+      </c>
+      <c r="C6">
+        <v>162</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.74393172393027E-187</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.1390771030744999E-185</v>
+      </c>
+      <c r="F6">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5.7983868756418101E-30</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.04370963761552E-27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>180</v>
+      </c>
+      <c r="C7">
+        <v>160</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.3242529836644402E-183</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7.7836553705960002E-181</v>
+      </c>
+      <c r="F7">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6.4518247461986099E-31</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.1613284543157499E-28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>180</v>
+      </c>
+      <c r="C8">
+        <v>161</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.8261944913168601E-185</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.0871500843703403E-183</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7.4090744861823303E-33</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.33363340751281E-30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>180</v>
+      </c>
+      <c r="C9">
+        <v>161</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.8261944913168601E-185</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5.0871500843703403E-183</v>
+      </c>
+      <c r="F9">
+        <v>58</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6.4518247461986099E-31</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.1613284543157499E-28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>180</v>
+      </c>
+      <c r="C10">
+        <v>161</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.8261944913168601E-185</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.0871500843703403E-183</v>
+      </c>
+      <c r="F10">
+        <v>58</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6.4518247461986099E-31</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.1613284543157499E-28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>180</v>
+      </c>
+      <c r="C11">
+        <v>162</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.74393172393027E-187</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3.1390771030744999E-185</v>
+      </c>
+      <c r="F11">
+        <v>56</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5.0805809184569195E-29</v>
+      </c>
+      <c r="H11" s="2">
+        <v>9.1450456532224603E-27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0047D50B-CAEB-6B49-8E89-FFC714AB1CDF}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1919</v>
+      </c>
+      <c r="C2">
+        <v>1528</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>493</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.2299999999999999E-200</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2.3599999999999999E-197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1919</v>
+      </c>
+      <c r="C3">
+        <v>1527</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>502</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4.7800000000000004E-208</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9.1799999999999994E-205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1919</v>
+      </c>
+      <c r="C4">
+        <v>1522</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>494</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.87E-201</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3.5799999999999997E-198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1919</v>
+      </c>
+      <c r="C5">
+        <v>1530</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>496</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.2699999999999997E-203</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8.1899999999999996E-200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1919</v>
+      </c>
+      <c r="C6">
+        <v>1527</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>492</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8.0699999999999999E-200</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.55E-196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1919</v>
+      </c>
+      <c r="C7">
+        <v>1533</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>493</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.2299999999999999E-200</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.3599999999999999E-197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1919</v>
+      </c>
+      <c r="C8">
+        <v>1530</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>487</v>
+      </c>
+      <c r="G8" s="2">
+        <v>9.4599999999999994E-196</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.8199999999999998E-192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1919</v>
+      </c>
+      <c r="C9">
+        <v>1523</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>493</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.2299999999999999E-200</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2.3599999999999999E-197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1919</v>
+      </c>
+      <c r="C10">
+        <v>1528</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>497</v>
+      </c>
+      <c r="G10" s="2">
+        <v>6.4300000000000005E-204</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.2299999999999999E-200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1919</v>
+      </c>
+      <c r="C11">
+        <v>1523</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>501</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3.2200000000000002E-207</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6.18E-204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7039D428-3699-574F-9066-00514466FA2E}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>180</v>
+      </c>
+      <c r="C2">
+        <v>0.40562365195433697</v>
+      </c>
+      <c r="D2">
+        <v>0.13785575253827101</v>
+      </c>
+      <c r="E2">
+        <v>0.120595927242808</v>
+      </c>
+      <c r="F2">
+        <v>0.14311871305020099</v>
+      </c>
+      <c r="G2">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H2">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>180</v>
+      </c>
+      <c r="C3">
+        <v>0.40495240891629303</v>
+      </c>
+      <c r="D3">
+        <v>0.13969022975849599</v>
+      </c>
+      <c r="E3">
+        <v>0.12168102534938199</v>
+      </c>
+      <c r="F3">
+        <v>0.146520724539868</v>
+      </c>
+      <c r="G3">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H3">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <v>0.40493872516860402</v>
+      </c>
+      <c r="D4">
+        <v>0.137927414910646</v>
+      </c>
+      <c r="E4">
+        <v>0.12066565846187401</v>
+      </c>
+      <c r="F4">
+        <v>0.14363912221170999</v>
+      </c>
+      <c r="G4">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H4">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+      <c r="C5">
+        <v>0.398684751335799</v>
+      </c>
+      <c r="D5">
+        <v>0.140422136795532</v>
+      </c>
+      <c r="E5">
+        <v>0.12321059398404099</v>
+      </c>
+      <c r="F5">
+        <v>0.138851295441519</v>
+      </c>
+      <c r="G5">
+        <v>1.9980019980019902E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.99800199800199E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>180</v>
+      </c>
+      <c r="C6">
+        <v>0.40280481109946598</v>
+      </c>
+      <c r="D6">
+        <v>0.13879323251983799</v>
+      </c>
+      <c r="E6">
+        <v>0.121011835017355</v>
+      </c>
+      <c r="F6">
+        <v>0.14639779270672301</v>
+      </c>
+      <c r="G6">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H6">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>180</v>
+      </c>
+      <c r="C7">
+        <v>0.404167101282987</v>
+      </c>
+      <c r="D7">
+        <v>0.138703452592051</v>
+      </c>
+      <c r="E7">
+        <v>0.121946369730712</v>
+      </c>
+      <c r="F7">
+        <v>0.13721826657421499</v>
+      </c>
+      <c r="G7">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H7">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>180</v>
+      </c>
+      <c r="C8">
+        <v>0.40332656366487502</v>
+      </c>
+      <c r="D8">
+        <v>0.13897529499472899</v>
+      </c>
+      <c r="E8">
+        <v>0.122376752830392</v>
+      </c>
+      <c r="F8">
+        <v>0.137628276528343</v>
+      </c>
+      <c r="G8">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H8">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>180</v>
+      </c>
+      <c r="C9">
+        <v>0.40211152111521098</v>
+      </c>
+      <c r="D9">
+        <v>0.13952952029520199</v>
+      </c>
+      <c r="E9">
+        <v>0.122606679831716</v>
+      </c>
+      <c r="F9">
+        <v>0.13930163898798001</v>
+      </c>
+      <c r="G9">
+        <v>1.9980019980019902E-3</v>
+      </c>
+      <c r="H9">
+        <v>1.99800199800199E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>180</v>
+      </c>
+      <c r="C10">
+        <v>0.40227802868628698</v>
+      </c>
+      <c r="D10">
+        <v>0.13891508263437299</v>
+      </c>
+      <c r="E10">
+        <v>0.120278661351691</v>
+      </c>
+      <c r="F10">
+        <v>0.154721878837496</v>
+      </c>
+      <c r="G10">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H10">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>180</v>
+      </c>
+      <c r="C11">
+        <v>0.40539341095389703</v>
+      </c>
+      <c r="D11">
+        <v>0.13893384848326601</v>
+      </c>
+      <c r="E11">
+        <v>0.121519864261202</v>
+      </c>
+      <c r="F11">
+        <v>0.14479760794730101</v>
+      </c>
+      <c r="G11">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H11">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC25EE18-7B38-A34A-A675-12E76174C7D8}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1919</v>
+      </c>
+      <c r="C2">
+        <v>0.44138813195732801</v>
+      </c>
+      <c r="D2">
+        <v>0.123286033163265</v>
+      </c>
+      <c r="E2">
+        <v>0.11068941226487899</v>
+      </c>
+      <c r="F2">
+        <v>0.11562506807853699</v>
+      </c>
+      <c r="G2">
+        <v>2.9970029970029901E-3</v>
+      </c>
+      <c r="H2">
+        <v>2.9970029970029899E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1919</v>
+      </c>
+      <c r="C3">
+        <v>0.44018226322183401</v>
+      </c>
+      <c r="D3">
+        <v>0.123806330907242</v>
+      </c>
+      <c r="E3">
+        <v>0.111079167560609</v>
+      </c>
+      <c r="F3">
+        <v>0.11425426067267699</v>
+      </c>
+      <c r="G3">
+        <v>3.9960039960039899E-3</v>
+      </c>
+      <c r="H3">
+        <v>3.9960039960039898E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1919</v>
+      </c>
+      <c r="C4">
+        <v>0.44097800146584598</v>
+      </c>
+      <c r="D4">
+        <v>0.123206955190578</v>
+      </c>
+      <c r="E4">
+        <v>0.11125908042323</v>
+      </c>
+      <c r="F4">
+        <v>0.10966065064606501</v>
+      </c>
+      <c r="G4">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H4">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1919</v>
+      </c>
+      <c r="C5">
+        <v>0.43974816566677799</v>
+      </c>
+      <c r="D5">
+        <v>0.123924623279126</v>
+      </c>
+      <c r="E5">
+        <v>0.11124595805521099</v>
+      </c>
+      <c r="F5">
+        <v>0.11398921177214399</v>
+      </c>
+      <c r="G5">
+        <v>3.9960039960039899E-3</v>
+      </c>
+      <c r="H5">
+        <v>3.9960039960039898E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1919</v>
+      </c>
+      <c r="C6">
+        <v>0.439569679822155</v>
+      </c>
+      <c r="D6">
+        <v>0.124115829892889</v>
+      </c>
+      <c r="E6">
+        <v>0.11172893489800401</v>
+      </c>
+      <c r="F6">
+        <v>0.112629623955085</v>
+      </c>
+      <c r="G6">
+        <v>2.9970029970029901E-3</v>
+      </c>
+      <c r="H6">
+        <v>2.9970029970029899E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1919</v>
+      </c>
+      <c r="C7">
+        <v>0.440570913265657</v>
+      </c>
+      <c r="D7">
+        <v>0.12384877534686101</v>
+      </c>
+      <c r="E7">
+        <v>0.11115911639865</v>
+      </c>
+      <c r="F7">
+        <v>0.11460649048412699</v>
+      </c>
+      <c r="G7">
+        <v>5.9940059940059897E-3</v>
+      </c>
+      <c r="H7">
+        <v>5.9940059940059902E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1919</v>
+      </c>
+      <c r="C8">
+        <v>0.43981162623818598</v>
+      </c>
+      <c r="D8">
+        <v>0.123971859325474</v>
+      </c>
+      <c r="E8">
+        <v>0.11119854845871099</v>
+      </c>
+      <c r="F8">
+        <v>0.113967319425767</v>
+      </c>
+      <c r="G8">
+        <v>1.9980019980019902E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.99800199800199E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1919</v>
+      </c>
+      <c r="C9">
+        <v>0.44033400351391899</v>
+      </c>
+      <c r="D9">
+        <v>0.123566809759278</v>
+      </c>
+      <c r="E9">
+        <v>0.111065502400676</v>
+      </c>
+      <c r="F9">
+        <v>0.11223174485553</v>
+      </c>
+      <c r="G9">
+        <v>1.9980019980019902E-3</v>
+      </c>
+      <c r="H9">
+        <v>1.99800199800199E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1919</v>
+      </c>
+      <c r="C10">
+        <v>0.44114389286073902</v>
+      </c>
+      <c r="D10">
+        <v>0.12359566724686</v>
+      </c>
+      <c r="E10">
+        <v>0.110962160310084</v>
+      </c>
+      <c r="F10">
+        <v>0.11537057988183901</v>
+      </c>
+      <c r="G10">
+        <v>2.9970029970029901E-3</v>
+      </c>
+      <c r="H10">
+        <v>2.9970029970029899E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1919</v>
+      </c>
+      <c r="C11">
+        <v>0.44148905509201197</v>
+      </c>
+      <c r="D11">
+        <v>0.12360036314902</v>
+      </c>
+      <c r="E11">
+        <v>0.11117817921892501</v>
+      </c>
+      <c r="F11">
+        <v>0.11380098276662701</v>
+      </c>
+      <c r="G11">
+        <v>5.9940059940059897E-3</v>
+      </c>
+      <c r="H11">
+        <v>5.9940059940059902E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/supplement.xlsx
+++ b/supplement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/la466/Documents/scripts/lincRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5F64D2-028E-0F43-A3B2-BD4F79E01F4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D16FC37-7ADD-B04A-ABAF-148160502E2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{A83AC98B-25A7-6245-B518-29FF0FB3C8B5}"/>
+    <workbookView xWindow="43020" yWindow="7700" windowWidth="27640" windowHeight="16940" firstSheet="8" activeTab="12" xr2:uid="{A83AC98B-25A7-6245-B518-29FF0FB3C8B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet Key" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,12 @@
     <sheet name="Supplementary Spreadsheet 4" sheetId="7" r:id="rId5"/>
     <sheet name="Supplementary Spreadsheet 5" sheetId="1" r:id="rId6"/>
     <sheet name="Supplementay Spreadsheet 6" sheetId="3" r:id="rId7"/>
+    <sheet name="Supplementary Spreadsheet 7" sheetId="8" r:id="rId8"/>
+    <sheet name="Supplementary Spreadsheet 8" sheetId="9" r:id="rId9"/>
+    <sheet name="Supplementary Spreadsheet 9" sheetId="10" r:id="rId10"/>
+    <sheet name="Supplementary Spreadsheet 10" sheetId="11" r:id="rId11"/>
+    <sheet name="Supplementary Spreadsheet 11" sheetId="12" r:id="rId12"/>
+    <sheet name="Supplementary Spreadsheet 12" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
   <si>
     <t>run_number</t>
   </si>
@@ -96,12 +102,6 @@
     <t>Supplementary Spreadsheet 11</t>
   </si>
   <si>
-    <t>Stop codon densities in the reduced lincRNA set after ESE hits have been removed</t>
-  </si>
-  <si>
-    <t>Stop codon densities in the extended lincRNA set after ESE hits have been removed</t>
-  </si>
-  <si>
     <t>data_points</t>
   </si>
   <si>
@@ -133,13 +133,88 @@
   </si>
   <si>
     <t>Stop codon densities within gene comparisons in the extended lincRNA set compared with null sequences</t>
+  </si>
+  <si>
+    <t>Stop codon densities in the reduced lincRNA set after ESE hits have been removed compared with simulated ESE motifs</t>
+  </si>
+  <si>
+    <t>Stop codon densities in the extended lincRNA set after ESE hits have been removed compared with simulated ESE motifs</t>
+  </si>
+  <si>
+    <t>Stop codon densities in the reduced lincRNA after ESE hits have been removed compared with simulated remaining sequence</t>
+  </si>
+  <si>
+    <t>Stop codon densities in the extended lincRNA after ESE hits have been removed compared with simulated remaining sequence</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>expected_stop_overlaps</t>
+  </si>
+  <si>
+    <t>observed_stop_overlaps</t>
+  </si>
+  <si>
+    <t>expected_non_stop_overlaps</t>
+  </si>
+  <si>
+    <t>observed_non_stop_overlaps</t>
+  </si>
+  <si>
+    <t>mean_stop_overlap_length</t>
+  </si>
+  <si>
+    <t>mean_non_stop_overlap_length</t>
+  </si>
+  <si>
+    <t>chi_statistic</t>
+  </si>
+  <si>
+    <t>adj_p</t>
+  </si>
+  <si>
+    <t>run_1</t>
+  </si>
+  <si>
+    <t>run_2</t>
+  </si>
+  <si>
+    <t>run_3</t>
+  </si>
+  <si>
+    <t>run_4</t>
+  </si>
+  <si>
+    <t>run_5</t>
+  </si>
+  <si>
+    <t>run_6</t>
+  </si>
+  <si>
+    <t>run_7</t>
+  </si>
+  <si>
+    <t>run_8</t>
+  </si>
+  <si>
+    <t>run_9</t>
+  </si>
+  <si>
+    <t>run_10</t>
+  </si>
+  <si>
+    <t>Protein-coding exons INT3 hit overlap chisquare</t>
+  </si>
+  <si>
+    <t>Protein-coding exons RESCUE hit overlap chisquare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +226,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -191,10 +273,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3075F3E-581B-054A-9F79-F7D7DEF3BB90}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -542,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -550,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -558,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -566,7 +650,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -574,32 +658,1526 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4D8C33-A9EB-5040-865C-CA4C5042D306}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>15443.869202665301</v>
+      </c>
+      <c r="C2">
+        <v>11589</v>
+      </c>
+      <c r="D2">
+        <v>82118.130797334597</v>
+      </c>
+      <c r="E2">
+        <v>85973</v>
+      </c>
+      <c r="F2">
+        <v>7.3400638536543203</v>
+      </c>
+      <c r="G2">
+        <v>9.4776034336361406</v>
+      </c>
+      <c r="I2">
+        <v>1143.1542052073301</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.37951659006728E-250</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.37951659006728E-249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>15454.5519054997</v>
+      </c>
+      <c r="C3">
+        <v>11564</v>
+      </c>
+      <c r="D3">
+        <v>82117.4480945002</v>
+      </c>
+      <c r="E3">
+        <v>86008</v>
+      </c>
+      <c r="F3">
+        <v>7.3425285368384596</v>
+      </c>
+      <c r="G3">
+        <v>9.4711770998046596</v>
+      </c>
+      <c r="I3">
+        <v>1163.7394920449101</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4.6325477103098703E-255</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.6325477103098701E-254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>15546.3649618493</v>
+      </c>
+      <c r="C4">
+        <v>11678</v>
+      </c>
+      <c r="D4">
+        <v>82249.635038150605</v>
+      </c>
+      <c r="E4">
+        <v>86118</v>
+      </c>
+      <c r="F4">
+        <v>7.34209624935776</v>
+      </c>
+      <c r="G4">
+        <v>9.4815834088111597</v>
+      </c>
+      <c r="I4">
+        <v>1144.4929858165599</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7.0592846800228306E-251</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7.0592846800228297E-250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>15458.5195582448</v>
+      </c>
+      <c r="C5">
+        <v>11601</v>
+      </c>
+      <c r="D5">
+        <v>82268.480441755106</v>
+      </c>
+      <c r="E5">
+        <v>86126</v>
+      </c>
+      <c r="F5">
+        <v>7.3401430911128296</v>
+      </c>
+      <c r="G5">
+        <v>9.4795183800478302</v>
+      </c>
+      <c r="I5">
+        <v>1143.4823487595199</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.17060195703166E-250</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.17060195703166E-249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>15399.917774220099</v>
+      </c>
+      <c r="C6">
+        <v>11559</v>
+      </c>
+      <c r="D6">
+        <v>82015.082225779799</v>
+      </c>
+      <c r="E6">
+        <v>85856</v>
+      </c>
+      <c r="F6">
+        <v>7.3408599359806201</v>
+      </c>
+      <c r="G6">
+        <v>9.4743291092061099</v>
+      </c>
+      <c r="I6">
+        <v>1137.8466314725899</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.9645392087604201E-249</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.9645392087604201E-248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>15487.5803512815</v>
+      </c>
+      <c r="C7">
+        <v>11603</v>
+      </c>
+      <c r="D7">
+        <v>82376.419648718394</v>
+      </c>
+      <c r="E7">
+        <v>86261</v>
+      </c>
+      <c r="F7">
+        <v>7.3356028613289599</v>
+      </c>
+      <c r="G7">
+        <v>9.4703747927800492</v>
+      </c>
+      <c r="I7">
+        <v>1157.5098522556</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.0464838524432999E-253</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.0464838524433E-252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>15381.1202721424</v>
+      </c>
+      <c r="C8">
+        <v>11541</v>
+      </c>
+      <c r="D8">
+        <v>82037.879727857493</v>
+      </c>
+      <c r="E8">
+        <v>85878</v>
+      </c>
+      <c r="F8">
+        <v>7.3395719608352801</v>
+      </c>
+      <c r="G8">
+        <v>9.4871561983278596</v>
+      </c>
+      <c r="I8">
+        <v>1138.49446857098</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.4205655562616E-249</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.4205655562615999E-248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>15415.7368630535</v>
+      </c>
+      <c r="C9">
+        <v>11589</v>
+      </c>
+      <c r="D9">
+        <v>82030.263136946407</v>
+      </c>
+      <c r="E9">
+        <v>85857</v>
+      </c>
+      <c r="F9">
+        <v>7.3436016912589501</v>
+      </c>
+      <c r="G9">
+        <v>9.4869142877109596</v>
+      </c>
+      <c r="I9">
+        <v>1128.4513057716099</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.1638494592863301E-247</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.16384945928633E-246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>15477.725381860801</v>
+      </c>
+      <c r="C10">
+        <v>11581</v>
+      </c>
+      <c r="D10">
+        <v>82190.274618139098</v>
+      </c>
+      <c r="E10">
+        <v>86087</v>
+      </c>
+      <c r="F10">
+        <v>7.34297556342284</v>
+      </c>
+      <c r="G10">
+        <v>9.4890866216734207</v>
+      </c>
+      <c r="I10">
+        <v>1165.80074074764</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.65136019466328E-255</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.65136019466328E-254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>15401.663315080699</v>
+      </c>
+      <c r="C11">
+        <v>11604</v>
+      </c>
+      <c r="D11">
+        <v>81805.336684919195</v>
+      </c>
+      <c r="E11">
+        <v>85603</v>
+      </c>
+      <c r="F11">
+        <v>7.3421234057221598</v>
+      </c>
+      <c r="G11">
+        <v>9.4796911323201201</v>
+      </c>
+      <c r="I11">
+        <v>1112.7079658297</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5.7134083748465601E-244</v>
+      </c>
+      <c r="K11" s="2">
+        <v>5.7134083748465605E-243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299583AC-983C-1744-A465-1F59D54706DE}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3">
+        <v>41556.5861</v>
+      </c>
+      <c r="C2" s="3">
+        <v>39943</v>
+      </c>
+      <c r="D2" s="3">
+        <v>161541.41399999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>163155</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7.9422176599999998</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10.5751525</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3">
+        <v>78.770968600000003</v>
+      </c>
+      <c r="J2" s="4">
+        <v>6.9700000000000003E-19</v>
+      </c>
+      <c r="K2" s="4">
+        <v>6.9700000000000007E-18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3">
+        <v>41807.177199999998</v>
+      </c>
+      <c r="C3" s="3">
+        <v>40129</v>
+      </c>
+      <c r="D3" s="3">
+        <v>162170.823</v>
+      </c>
+      <c r="E3" s="3">
+        <v>163849</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7.9402925599999996</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10.578703600000001</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>84.729651099999998</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3.4199999999999998E-20</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3.4199999999999999E-19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3">
+        <v>41574.082999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>39924</v>
+      </c>
+      <c r="D4" s="3">
+        <v>161763.91699999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>163414</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7.9421400699999998</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10.5794791</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>82.323871499999996</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.16E-19</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.16E-18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3">
+        <v>41700.5389</v>
+      </c>
+      <c r="C5" s="3">
+        <v>39994</v>
+      </c>
+      <c r="D5" s="3">
+        <v>161622.46100000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>163329</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7.9447667199999996</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10.5753602</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>87.856823300000002</v>
+      </c>
+      <c r="J5" s="4">
+        <v>7.0400000000000002E-21</v>
+      </c>
+      <c r="K5" s="4">
+        <v>7.0400000000000002E-20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3">
+        <v>41592.876400000001</v>
+      </c>
+      <c r="C6" s="3">
+        <v>40034</v>
+      </c>
+      <c r="D6" s="3">
+        <v>161648.12400000001</v>
+      </c>
+      <c r="E6" s="3">
+        <v>163207</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7.9421491700000004</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10.575195900000001</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>73.459007900000003</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.0300000000000001E-17</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.03E-16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3">
+        <v>41809.439299999998</v>
+      </c>
+      <c r="C7" s="3">
+        <v>40150</v>
+      </c>
+      <c r="D7" s="3">
+        <v>162366.56099999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>164026</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7.9421170600000002</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10.576024500000001</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>82.824060399999993</v>
+      </c>
+      <c r="J7" s="4">
+        <v>8.9700000000000005E-20</v>
+      </c>
+      <c r="K7" s="4">
+        <v>8.9699999999999993E-19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3">
+        <v>41590.839599999999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>39925</v>
+      </c>
+      <c r="D8" s="3">
+        <v>161697.16</v>
+      </c>
+      <c r="E8" s="3">
+        <v>163363</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7.9440450800000004</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10.5757546</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>83.883782199999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5.2499999999999997E-20</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5.25E-19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3">
+        <v>41800.5049</v>
+      </c>
+      <c r="C9" s="3">
+        <v>40178</v>
+      </c>
+      <c r="D9" s="3">
+        <v>162381.495</v>
+      </c>
+      <c r="E9" s="3">
+        <v>164004</v>
+      </c>
+      <c r="F9" s="3">
+        <v>7.9457165600000002</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10.5765835</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>79.1901972</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5.6400000000000004E-19</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5.64E-18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3">
+        <v>42000.279399999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>40343</v>
+      </c>
+      <c r="D10" s="3">
+        <v>162744.72099999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>164402</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7.9462112400000002</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10.5823956</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>82.270795100000001</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1.19E-19</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.19E-18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3">
+        <v>41794.3338</v>
+      </c>
+      <c r="C11" s="3">
+        <v>40130</v>
+      </c>
+      <c r="D11" s="3">
+        <v>161981.666</v>
+      </c>
+      <c r="E11" s="3">
+        <v>163646</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7.9506852700000001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10.5904636</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>83.377842200000003</v>
+      </c>
+      <c r="J11" s="4">
+        <v>6.78E-20</v>
+      </c>
+      <c r="K11" s="4">
+        <v>6.7799999999999997E-19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D362F6-14D3-AC40-BBF6-CBD1E39978F9}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>2251.8959369106801</v>
+      </c>
+      <c r="C2">
+        <v>1489</v>
+      </c>
+      <c r="D2">
+        <v>13090.1040630893</v>
+      </c>
+      <c r="E2">
+        <v>13853</v>
+      </c>
+      <c r="F2">
+        <v>7.3129617192746803</v>
+      </c>
+      <c r="G2">
+        <v>9.4008518010539195</v>
+      </c>
+      <c r="I2">
+        <v>302.915269350122</v>
+      </c>
+      <c r="J2" s="2">
+        <v>7.6320714131845692E-68</v>
+      </c>
+      <c r="K2" s="2">
+        <v>7.6320714131845695E-67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>2255.0522668041299</v>
+      </c>
+      <c r="C3">
+        <v>1491</v>
+      </c>
+      <c r="D3">
+        <v>13063.947733195801</v>
+      </c>
+      <c r="E3">
+        <v>13828</v>
+      </c>
+      <c r="F3">
+        <v>7.3085177733064999</v>
+      </c>
+      <c r="G3">
+        <v>9.3953572461671904</v>
+      </c>
+      <c r="I3">
+        <v>303.56067285894699</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5.52122775918763E-68</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5.5212277591876298E-67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>2249.3355334902099</v>
+      </c>
+      <c r="C4">
+        <v>1487</v>
+      </c>
+      <c r="D4">
+        <v>13008.664466509699</v>
+      </c>
+      <c r="E4">
+        <v>13771</v>
+      </c>
+      <c r="F4">
+        <v>7.3106926698049701</v>
+      </c>
+      <c r="G4">
+        <v>9.4006245007624702</v>
+      </c>
+      <c r="I4">
+        <v>303.04210993156198</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7.1615829385614504E-68</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7.1615829385614506E-67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>2255.2826660548299</v>
+      </c>
+      <c r="C5">
+        <v>1496</v>
+      </c>
+      <c r="D5">
+        <v>13052.7173339451</v>
+      </c>
+      <c r="E5">
+        <v>13812</v>
+      </c>
+      <c r="F5">
+        <v>7.3121657754010698</v>
+      </c>
+      <c r="G5">
+        <v>9.4040689255719592</v>
+      </c>
+      <c r="I5">
+        <v>299.79439508637699</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3.6522946421153398E-67</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.6522946421153399E-66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>2256.13633106926</v>
+      </c>
+      <c r="C6">
+        <v>1497</v>
+      </c>
+      <c r="D6">
+        <v>13038.8636689307</v>
+      </c>
+      <c r="E6">
+        <v>13798</v>
+      </c>
+      <c r="F6">
+        <v>7.3066132264528996</v>
+      </c>
+      <c r="G6">
+        <v>9.4038266415422491</v>
+      </c>
+      <c r="I6">
+        <v>299.62907314661402</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3.9681127352850401E-67</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3.9681127352850399E-66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>2254.0819954128401</v>
+      </c>
+      <c r="C7">
+        <v>1492</v>
+      </c>
+      <c r="D7">
+        <v>13071.9180045871</v>
+      </c>
+      <c r="E7">
+        <v>13834</v>
+      </c>
+      <c r="F7">
+        <v>7.3036193029490599</v>
+      </c>
+      <c r="G7">
+        <v>9.4021974844585792</v>
+      </c>
+      <c r="I7">
+        <v>302.08085285528801</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.1599219106698099E-67</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.15992191066981E-66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>2248.6110887560299</v>
+      </c>
+      <c r="C8">
+        <v>1488</v>
+      </c>
+      <c r="D8">
+        <v>13034.388911243899</v>
+      </c>
+      <c r="E8">
+        <v>13795</v>
+      </c>
+      <c r="F8">
+        <v>7.3037634408602097</v>
+      </c>
+      <c r="G8">
+        <v>9.3966654584994505</v>
+      </c>
+      <c r="I8">
+        <v>301.66775774359701</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.42700807566296E-67</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1.4270080756629599E-66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>2256.1231807394201</v>
+      </c>
+      <c r="C9">
+        <v>1488</v>
+      </c>
+      <c r="D9">
+        <v>13070.8768192605</v>
+      </c>
+      <c r="E9">
+        <v>13839</v>
+      </c>
+      <c r="F9">
+        <v>7.30241935483871</v>
+      </c>
+      <c r="G9">
+        <v>9.4008960184984396</v>
+      </c>
+      <c r="I9">
+        <v>306.655932627011</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.1687451496108101E-68</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.16874514961081E-67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>2250.3366450353101</v>
+      </c>
+      <c r="C10">
+        <v>1491</v>
+      </c>
+      <c r="D10">
+        <v>13008.663354964599</v>
+      </c>
+      <c r="E10">
+        <v>13768</v>
+      </c>
+      <c r="F10">
+        <v>7.3098591549295699</v>
+      </c>
+      <c r="G10">
+        <v>9.4011475886112699</v>
+      </c>
+      <c r="I10">
+        <v>300.54854092040199</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2.5018607711767E-67</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.5018607711767E-66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>2250.7819876667099</v>
+      </c>
+      <c r="C11">
+        <v>1490</v>
+      </c>
+      <c r="D11">
+        <v>13043.2180123332</v>
+      </c>
+      <c r="E11">
+        <v>13804</v>
+      </c>
+      <c r="F11">
+        <v>7.3134228187919401</v>
+      </c>
+      <c r="G11">
+        <v>9.4008258475804105</v>
+      </c>
+      <c r="I11">
+        <v>301.52501296238898</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.53294005040342E-67</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.53294005040342E-66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF66AFD3-634F-A842-A327-697FDC48DBB5}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>6819.7661635800396</v>
+      </c>
+      <c r="C2">
+        <v>6106</v>
+      </c>
+      <c r="D2">
+        <v>28448.233836419899</v>
+      </c>
+      <c r="E2">
+        <v>29162</v>
+      </c>
+      <c r="F2">
+        <v>7.8647232230592801</v>
+      </c>
+      <c r="G2">
+        <v>10.4548384884438</v>
+      </c>
+      <c r="I2">
+        <v>92.612146817000493</v>
+      </c>
+      <c r="J2" s="2">
+        <v>6.3615779620970396E-22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>6.36157796209704E-21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
+        <v>6808.40183492294</v>
+      </c>
+      <c r="C3">
+        <v>6102</v>
+      </c>
+      <c r="D3">
+        <v>28372.598165077001</v>
+      </c>
+      <c r="E3">
+        <v>29079</v>
+      </c>
+      <c r="F3">
+        <v>7.8629957391019296</v>
+      </c>
+      <c r="G3">
+        <v>10.456515010832501</v>
+      </c>
+      <c r="I3">
+        <v>90.879834997408494</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.52667616394495E-21</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.5266761639449501E-20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>6822.0458852949796</v>
+      </c>
+      <c r="C4">
+        <v>6120</v>
+      </c>
+      <c r="D4">
+        <v>28458.954114705</v>
+      </c>
+      <c r="E4">
+        <v>29161</v>
+      </c>
+      <c r="F4">
+        <v>7.86339869281045</v>
+      </c>
+      <c r="G4">
+        <v>10.4544082850382</v>
+      </c>
+      <c r="I4">
+        <v>89.564996072138698</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.9672806502518801E-21</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.9672806502518797E-20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>6819.6713432145998</v>
+      </c>
+      <c r="C5">
+        <v>6108</v>
+      </c>
+      <c r="D5">
+        <v>28332.328656785299</v>
+      </c>
+      <c r="E5">
+        <v>29044</v>
+      </c>
+      <c r="F5">
+        <v>7.8660772757039901</v>
+      </c>
+      <c r="G5">
+        <v>10.4509709406417</v>
+      </c>
+      <c r="I5">
+        <v>92.143197778882396</v>
+      </c>
+      <c r="J5" s="2">
+        <v>8.0626073709994097E-22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>8.0626073709994104E-21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6">
+        <v>6816.2157985682497</v>
+      </c>
+      <c r="C6">
+        <v>6118</v>
+      </c>
+      <c r="D6">
+        <v>28454.784201431699</v>
+      </c>
+      <c r="E6">
+        <v>29153</v>
+      </c>
+      <c r="F6">
+        <v>7.8644982020267999</v>
+      </c>
+      <c r="G6">
+        <v>10.450176654203601</v>
+      </c>
+      <c r="I6">
+        <v>88.654031116356805</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4.7026734576256897E-21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4.7026734576256903E-20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>6843.5993217772002</v>
+      </c>
+      <c r="C7">
+        <v>6109</v>
+      </c>
+      <c r="D7">
+        <v>28459.400678222701</v>
+      </c>
+      <c r="E7">
+        <v>29194</v>
+      </c>
+      <c r="F7">
+        <v>7.86511704043214</v>
+      </c>
+      <c r="G7">
+        <v>10.4553332876618</v>
+      </c>
+      <c r="I7">
+        <v>97.814296127204599</v>
+      </c>
+      <c r="J7" s="2">
+        <v>4.5951798592020502E-23</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4.5951798592020498E-22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>6867.8165845997801</v>
+      </c>
+      <c r="C8">
+        <v>6152</v>
+      </c>
+      <c r="D8">
+        <v>28650.183415400199</v>
+      </c>
+      <c r="E8">
+        <v>29366</v>
+      </c>
+      <c r="F8">
+        <v>7.8657347204161203</v>
+      </c>
+      <c r="G8">
+        <v>10.455118163862901</v>
+      </c>
+      <c r="I8">
+        <v>92.4923727221923</v>
+      </c>
+      <c r="J8" s="2">
+        <v>6.7584750561312297E-22</v>
+      </c>
+      <c r="K8" s="2">
+        <v>6.7584750561312303E-21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>6801.0166019658</v>
+      </c>
+      <c r="C9">
+        <v>6099</v>
+      </c>
+      <c r="D9">
+        <v>28296.983398034099</v>
+      </c>
+      <c r="E9">
+        <v>28999</v>
+      </c>
+      <c r="F9">
+        <v>7.8680111493687397</v>
+      </c>
+      <c r="G9">
+        <v>10.4554639815166</v>
+      </c>
+      <c r="I9">
+        <v>89.880019996201</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.53049651102168E-21</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.53049651102168E-20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10">
+        <v>6836.8799815710599</v>
+      </c>
+      <c r="C10">
+        <v>6114</v>
+      </c>
+      <c r="D10">
+        <v>28471.120018428901</v>
+      </c>
+      <c r="E10">
+        <v>29194</v>
+      </c>
+      <c r="F10">
+        <v>7.86473666993784</v>
+      </c>
+      <c r="G10">
+        <v>10.4524217304925</v>
+      </c>
+      <c r="I10">
+        <v>94.785740227336603</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2.1214838164614401E-22</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.1214838164614398E-21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>6835.4678526841399</v>
+      </c>
+      <c r="C11">
+        <v>6124</v>
+      </c>
+      <c r="D11">
+        <v>28545.5321473158</v>
+      </c>
+      <c r="E11">
+        <v>29257</v>
+      </c>
+      <c r="F11">
+        <v>7.8680600914434997</v>
+      </c>
+      <c r="G11">
+        <v>10.4541477253306</v>
+      </c>
+      <c r="I11">
+        <v>91.785542212947206</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9.6597634505829309E-22</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9.6597634505829305E-21</v>
       </c>
     </row>
   </sheetData>
@@ -1224,25 +2802,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1525,25 +3103,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2411,4 +3989,317 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B34B3D-6F53-8D43-A328-52BF8EDF35CB}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>180</v>
+      </c>
+      <c r="C2">
+        <v>0.40506163000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.13820925000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.11826233</v>
+      </c>
+      <c r="F2">
+        <v>0.16885836000000001</v>
+      </c>
+      <c r="G2">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H2">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>180</v>
+      </c>
+      <c r="C3">
+        <v>0.40556314999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.13794825999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.11815123</v>
+      </c>
+      <c r="F3">
+        <v>0.16753725999999999</v>
+      </c>
+      <c r="G3">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H3">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <v>0.40435027000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.13777539999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.11849754999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.16338183000000001</v>
+      </c>
+      <c r="G4">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H4">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+      <c r="C5">
+        <v>0.40535982999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.13802734999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.11818492999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.16815316999999999</v>
+      </c>
+      <c r="G5">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H5">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>180</v>
+      </c>
+      <c r="C6">
+        <v>0.39960331999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.13997768999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.12041651</v>
+      </c>
+      <c r="F6">
+        <v>0.16179078999999999</v>
+      </c>
+      <c r="G6">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H6">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>180</v>
+      </c>
+      <c r="C7">
+        <v>0.40541876999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.13804590999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.11821352</v>
+      </c>
+      <c r="F7">
+        <v>0.16805296</v>
+      </c>
+      <c r="G7">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H7">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>180</v>
+      </c>
+      <c r="C8">
+        <v>0.40505630999999997</v>
+      </c>
+      <c r="D8">
+        <v>0.13774907</v>
+      </c>
+      <c r="E8">
+        <v>0.11813814</v>
+      </c>
+      <c r="F8">
+        <v>0.16583834</v>
+      </c>
+      <c r="G8">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H8">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>180</v>
+      </c>
+      <c r="C9">
+        <v>0.40449114000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.13850749000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.11838382</v>
+      </c>
+      <c r="F9">
+        <v>0.16873340000000001</v>
+      </c>
+      <c r="G9">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H9">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>180</v>
+      </c>
+      <c r="C10">
+        <v>0.40371395999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.13858110000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.11911357</v>
+      </c>
+      <c r="F10">
+        <v>0.16344947000000001</v>
+      </c>
+      <c r="G10">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H10">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>180</v>
+      </c>
+      <c r="C11">
+        <v>0.40423638000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.13960230000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.11961552</v>
+      </c>
+      <c r="F11">
+        <v>0.16786345999999999</v>
+      </c>
+      <c r="G11">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="H11">
+        <v>9.9900100000000006E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF48AD-2EB1-D148-AEB8-A0E034CE13BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/supplement.xlsx
+++ b/supplement.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/la466/Documents/scripts/lincRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D16FC37-7ADD-B04A-ABAF-148160502E2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A863A24-1C00-7246-869F-BF3E4DF61E09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43020" yWindow="7700" windowWidth="27640" windowHeight="16940" firstSheet="8" activeTab="12" xr2:uid="{A83AC98B-25A7-6245-B518-29FF0FB3C8B5}"/>
+    <workbookView xWindow="7000" yWindow="1280" windowWidth="27640" windowHeight="16940" firstSheet="11" activeTab="15" xr2:uid="{A83AC98B-25A7-6245-B518-29FF0FB3C8B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet Key" sheetId="2" r:id="rId1"/>
+    <sheet name="Key" sheetId="2" r:id="rId1"/>
     <sheet name="Supplementary Spreadsheet 1" sheetId="4" r:id="rId2"/>
     <sheet name="Supplementary Spreadsheet 2" sheetId="5" r:id="rId3"/>
     <sheet name="Supplementary Spreadsheet 3" sheetId="6" r:id="rId4"/>
@@ -26,6 +26,9 @@
     <sheet name="Supplementary Spreadsheet 10" sheetId="11" r:id="rId11"/>
     <sheet name="Supplementary Spreadsheet 11" sheetId="12" r:id="rId12"/>
     <sheet name="Supplementary Spreadsheet 12" sheetId="13" r:id="rId13"/>
+    <sheet name="Supplementary Spreadsheet 13" sheetId="14" r:id="rId14"/>
+    <sheet name="Supplementary Spreadsheet 14" sheetId="15" r:id="rId15"/>
+    <sheet name="Supplementary Spreadsheet 15" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="108">
   <si>
     <t>run_number</t>
   </si>
@@ -208,6 +211,159 @@
   </si>
   <si>
     <t>Protein-coding exons RESCUE hit overlap chisquare</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 12</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 13</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 14</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 15</t>
+  </si>
+  <si>
+    <t>Expanded set lincRNA exons INT3 hit overlap chisquare</t>
+  </si>
+  <si>
+    <t>Expanded set lincRNA exons RESCUE hit overlap chisquare</t>
+  </si>
+  <si>
+    <t>Protein Coding INT3</t>
+  </si>
+  <si>
+    <t>Protein Coding RESCUE</t>
+  </si>
+  <si>
+    <t>LincRNA INT3</t>
+  </si>
+  <si>
+    <t>Non-overlap density:</t>
+  </si>
+  <si>
+    <t>Non-overlap ND:</t>
+  </si>
+  <si>
+    <t>Non-overlap P (tail-greater):</t>
+  </si>
+  <si>
+    <t>Overlap density:</t>
+  </si>
+  <si>
+    <t>Overlap ND:</t>
+  </si>
+  <si>
+    <t>Overlap P (tail-less):</t>
+  </si>
+  <si>
+    <t>LincRNA RESCUE</t>
+  </si>
+  <si>
+    <t>motif_set</t>
+  </si>
+  <si>
+    <t>lincrna_rho</t>
+  </si>
+  <si>
+    <t>lincrna_p</t>
+  </si>
+  <si>
+    <t>protein_coding_rho</t>
+  </si>
+  <si>
+    <t>protein_coding_p</t>
+  </si>
+  <si>
+    <t>mean_lincrna</t>
+  </si>
+  <si>
+    <t>mean_pc</t>
+  </si>
+  <si>
+    <t>wilcox_text_score</t>
+  </si>
+  <si>
+    <t>wilcox_test_p</t>
+  </si>
+  <si>
+    <t>adjusted_p</t>
+  </si>
+  <si>
+    <t>int3</t>
+  </si>
+  <si>
+    <t>RESCUE</t>
+  </si>
+  <si>
+    <t>PESE</t>
+  </si>
+  <si>
+    <t>ESR</t>
+  </si>
+  <si>
+    <t>combined_eses</t>
+  </si>
+  <si>
+    <t>int3_flanks</t>
+  </si>
+  <si>
+    <t>RESCUE_flanks</t>
+  </si>
+  <si>
+    <t>PESE_flanks</t>
+  </si>
+  <si>
+    <t>ESR_flanks</t>
+  </si>
+  <si>
+    <t>combined_eses_flanks</t>
+  </si>
+  <si>
+    <t>Overlapping motif densitiy statistics</t>
+  </si>
+  <si>
+    <t>Correlations between median intron size and ESE densities</t>
+  </si>
+  <si>
+    <t>Correlations between median intron size and ESE densities grouped by stop and non-stop ESEs</t>
+  </si>
+  <si>
+    <t>lincrna_stop_ese_rho</t>
+  </si>
+  <si>
+    <t>lincrna_stop_ese_p</t>
+  </si>
+  <si>
+    <t>lincrna_non_stop_ese_rho</t>
+  </si>
+  <si>
+    <t>lincrna_non_stop_ese_p</t>
+  </si>
+  <si>
+    <t>lincrna_fischers_z</t>
+  </si>
+  <si>
+    <t>lincrna_diff_p</t>
+  </si>
+  <si>
+    <t>pc_stop_ese_rho</t>
+  </si>
+  <si>
+    <t>pc_stop_ese_p</t>
+  </si>
+  <si>
+    <t>pc_non_stop_ese_rho</t>
+  </si>
+  <si>
+    <t>pc_non_stop_ese_p</t>
+  </si>
+  <si>
+    <t>pc_fischers_z</t>
+  </si>
+  <si>
+    <t>pc_diff_p</t>
   </si>
 </sst>
 </file>
@@ -593,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3075F3E-581B-054A-9F79-F7D7DEF3BB90}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,6 +852,41 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1456,7 +1647,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K11"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1822,11 +2013,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF66AFD3-634F-A842-A327-697FDC48DBB5}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2178,6 +2372,983 @@
       </c>
       <c r="K11" s="2">
         <v>9.6597634505829305E-21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC909337-3E7A-4E45-8050-FB24C76ADBAC}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>8.2079229300602297E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.10125524243985</v>
+      </c>
+      <c r="D2">
+        <v>7.5990675990675993E-2</v>
+      </c>
+      <c r="E2">
+        <v>9.3261431096207006E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>0.16121748540219499</v>
+      </c>
+      <c r="C3">
+        <v>8.5664563371510696E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.153580834865925</v>
+      </c>
+      <c r="E3">
+        <v>8.4912584835820606E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="C4">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="D4">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="E4">
+        <v>9.99000999000999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>5.17074936647762E-2</v>
+      </c>
+      <c r="C5">
+        <v>6.6033309875674406E-2</v>
+      </c>
+      <c r="D5">
+        <v>5.05397142322331E-2</v>
+      </c>
+      <c r="E5">
+        <v>6.4276187544885593E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>-0.26832923728462899</v>
+      </c>
+      <c r="C6">
+        <v>-0.29196513179702199</v>
+      </c>
+      <c r="D6">
+        <v>-0.23252900241034699</v>
+      </c>
+      <c r="E6">
+        <v>-0.25236874856475799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="C7">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="D7">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="E7">
+        <v>9.99000999000999E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96454029-E2A3-B74A-A164-44A71E015FD0}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <v>0.19008452979248899</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.3687755437465698E-17</v>
+      </c>
+      <c r="D2">
+        <v>0.174325054919092</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.2448937453673999E-39</v>
+      </c>
+      <c r="F2">
+        <v>0.16137415301876301</v>
+      </c>
+      <c r="G2">
+        <v>0.18342399174917901</v>
+      </c>
+      <c r="H2">
+        <v>4090238.5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9.8768431537214604E-55</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4.9384215768607302E-54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>0.22725477340835101</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.3607633611542601E-24</v>
+      </c>
+      <c r="D3">
+        <v>0.33830439505753102</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.1609218798124999E-149</v>
+      </c>
+      <c r="F3">
+        <v>0.307273970374358</v>
+      </c>
+      <c r="G3">
+        <v>0.32187755431360698</v>
+      </c>
+      <c r="H3">
+        <v>4900873</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.26790856618939E-8</v>
+      </c>
+      <c r="J3" s="2">
+        <v>6.33954283094694E-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <v>6.7943164066498196E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.88813110971723E-3</v>
+      </c>
+      <c r="D4">
+        <v>-0.14951944862045199</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.6611005359346298E-29</v>
+      </c>
+      <c r="F4">
+        <v>0.25929076704913301</v>
+      </c>
+      <c r="G4">
+        <v>0.29949663130785698</v>
+      </c>
+      <c r="H4">
+        <v>3577038.5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>9.2976858090004705E-106</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4.6488429045002296E-105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5">
+        <v>0.14165856231687499</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.4828662022017599E-10</v>
+      </c>
+      <c r="D5">
+        <v>4.5388062228413802E-2</v>
+      </c>
+      <c r="E5">
+        <v>6.8909775744663499E-4</v>
+      </c>
+      <c r="F5">
+        <v>0.48825174607335398</v>
+      </c>
+      <c r="G5">
+        <v>0.521313023352167</v>
+      </c>
+      <c r="H5">
+        <v>3579007.5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.57252479877361E-105</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7.8626239938680599E-105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>0.16115999406865</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.19964901325087E-12</v>
+      </c>
+      <c r="D6">
+        <v>0.114794983705985</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7.2494752620796606E-18</v>
+      </c>
+      <c r="F6">
+        <v>0.64411765987185599</v>
+      </c>
+      <c r="G6">
+        <v>0.68130822953432002</v>
+      </c>
+      <c r="H6">
+        <v>3553536.5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8.0637433290006401E-109</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4.0318716645003197E-108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>9.82626504183646E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.2584502223316098E-5</v>
+      </c>
+      <c r="D8">
+        <v>0.15524755150549199</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.38157843535776E-16</v>
+      </c>
+      <c r="F8">
+        <v>0.153649598163031</v>
+      </c>
+      <c r="G8">
+        <v>0.17411882850230301</v>
+      </c>
+      <c r="H8">
+        <v>1931905</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8.53217329644921E-13</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4.2660866482246003E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9">
+        <v>0.13462242775129099</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.1099398760452298E-8</v>
+      </c>
+      <c r="D9">
+        <v>0.277355357789417</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.0146853702046199E-49</v>
+      </c>
+      <c r="F9">
+        <v>0.29521852277076199</v>
+      </c>
+      <c r="G9">
+        <v>0.30303977701315099</v>
+      </c>
+      <c r="H9">
+        <v>2160580</v>
+      </c>
+      <c r="I9">
+        <v>0.145975496142392</v>
+      </c>
+      <c r="J9">
+        <v>0.72987748071195802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>3.0743416925724999E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.21547666895635501</v>
+      </c>
+      <c r="D10">
+        <v>-5.1789542657943296E-3</v>
+      </c>
+      <c r="E10">
+        <v>0.78675659483153104</v>
+      </c>
+      <c r="F10">
+        <v>0.24246704936854199</v>
+      </c>
+      <c r="G10">
+        <v>0.29159048322937597</v>
+      </c>
+      <c r="H10">
+        <v>1644564.5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.8869622311075599E-46</v>
+      </c>
+      <c r="J10" s="2">
+        <v>9.4348111555377804E-46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>0.105167128489165</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.1574067208182301E-5</v>
+      </c>
+      <c r="D11">
+        <v>6.6029912111809905E-2</v>
+      </c>
+      <c r="E11">
+        <v>5.5470974839339805E-4</v>
+      </c>
+      <c r="F11">
+        <v>0.46240520474550301</v>
+      </c>
+      <c r="G11">
+        <v>0.50010804706603296</v>
+      </c>
+      <c r="H11">
+        <v>1709473</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6.4407357222062698E-37</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3.2203678611031399E-36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>0.10683030152457999</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.5923622838909201E-5</v>
+      </c>
+      <c r="D12">
+        <v>0.130606739969269</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7.3020543832010297E-12</v>
+      </c>
+      <c r="F12">
+        <v>0.61476655185610396</v>
+      </c>
+      <c r="G12">
+        <v>0.65882245767459702</v>
+      </c>
+      <c r="H12">
+        <v>1635838</v>
+      </c>
+      <c r="I12" s="2">
+        <v>8.0676103763052495E-48</v>
+      </c>
+      <c r="J12" s="2">
+        <v>4.03380518815263E-47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8903B0-CE2A-2545-8A2F-970F5835F5EA}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <v>0.12627461897891901</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.8055691169841101E-8</v>
+      </c>
+      <c r="D2">
+        <v>0.17991272701277899</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.9385392640032098E-15</v>
+      </c>
+      <c r="F2">
+        <v>5.3514995047927201</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8.7228376690218594E-8</v>
+      </c>
+      <c r="H2">
+        <v>0.15754971131731901</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2.18464042284331E-32</v>
+      </c>
+      <c r="J2">
+        <v>0.16737491836705601</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2.1675909016147301E-36</v>
+      </c>
+      <c r="L2">
+        <v>8.5555517828114702</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1.17306254347767E-17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>0.18830319286456901</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.6226189021833302E-17</v>
+      </c>
+      <c r="D3">
+        <v>0.20977056424552301</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.5190104553260401E-20</v>
+      </c>
+      <c r="F3">
+        <v>6.0027219991881902</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.9403668770630702E-9</v>
+      </c>
+      <c r="H3">
+        <v>0.231347653833119</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8.7050458073436696E-69</v>
+      </c>
+      <c r="J3">
+        <v>0.33922455818026298</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.61946542185171E-150</v>
+      </c>
+      <c r="L3">
+        <v>21.283377518738899</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.6185274184192399E-100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <v>0.12570956159200899</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.2370369586693698E-8</v>
+      </c>
+      <c r="D4">
+        <v>4.0669552330763199E-2</v>
+      </c>
+      <c r="E4">
+        <v>7.4734300911975401E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.400015269525554</v>
+      </c>
+      <c r="G4">
+        <v>0.68914527019306204</v>
+      </c>
+      <c r="H4">
+        <v>4.0990598479405997E-2</v>
+      </c>
+      <c r="I4">
+        <v>2.1783765760186899E-3</v>
+      </c>
+      <c r="J4">
+        <v>-0.171293040385537</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4.6662444769640199E-38</v>
+      </c>
+      <c r="L4">
+        <v>12.646816157079799</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1.1650099358996E-36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5">
+        <v>0.170194756182101</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.9355161696007994E-14</v>
+      </c>
+      <c r="D5">
+        <v>9.7994608097848698E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.6881310917473801E-5</v>
+      </c>
+      <c r="F5">
+        <v>1.9726788001603099</v>
+      </c>
+      <c r="G5">
+        <v>4.8532168789433797E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.30079067705824902</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3.3004890734490899E-117</v>
+      </c>
+      <c r="J5">
+        <v>-9.2190263607961204E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5.0324607966645499E-12</v>
+      </c>
+      <c r="L5">
+        <v>16.8567867193672</v>
+      </c>
+      <c r="M5" s="2">
+        <v>9.3538047482210903E-64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>0.192533670561854</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.6967743802230799E-17</v>
+      </c>
+      <c r="D6">
+        <v>0.12295411296322099</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.44486041814811E-8</v>
+      </c>
+      <c r="F6">
+        <v>1.19777177157615</v>
+      </c>
+      <c r="G6">
+        <v>0.231005879493174</v>
+      </c>
+      <c r="H6">
+        <v>0.21459764897475</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.9264773297638E-59</v>
+      </c>
+      <c r="J6">
+        <v>3.5099830651019001E-2</v>
+      </c>
+      <c r="K6">
+        <v>8.6655077546566196E-3</v>
+      </c>
+      <c r="L6">
+        <v>8.2853313148151706</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.1778073864938001E-16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>4.8781506005546198E-2</v>
+      </c>
+      <c r="C8">
+        <v>4.9286747113294102E-2</v>
+      </c>
+      <c r="D8">
+        <v>8.7271944995154796E-2</v>
+      </c>
+      <c r="E8">
+        <v>4.2820870638727698E-4</v>
+      </c>
+      <c r="F8">
+        <v>2.3177401175191799</v>
+      </c>
+      <c r="G8">
+        <v>2.0463449323090702E-2</v>
+      </c>
+      <c r="H8">
+        <v>7.7923744770561201E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>4.5855867359093898E-5</v>
+      </c>
+      <c r="J8">
+        <v>0.15326089056950201</v>
+      </c>
+      <c r="K8" s="2">
+        <v>8.16294108405164E-16</v>
+      </c>
+      <c r="L8">
+        <v>5.9827516925552597</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2.1939910685687701E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9">
+        <v>9.7665426613054607E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.0327776351510794E-5</v>
+      </c>
+      <c r="D9">
+        <v>0.123592068625031</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5.8080547157739002E-7</v>
+      </c>
+      <c r="F9">
+        <v>2.9162083477704002</v>
+      </c>
+      <c r="G9">
+        <v>3.5431380979757399E-3</v>
+      </c>
+      <c r="H9">
+        <v>0.152074219751206</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.36421642989408E-15</v>
+      </c>
+      <c r="J9">
+        <v>0.27038862567260702</v>
+      </c>
+      <c r="K9" s="2">
+        <v>5.9765461944059399E-47</v>
+      </c>
+      <c r="L9">
+        <v>10.503147956028</v>
+      </c>
+      <c r="M9" s="2">
+        <v>8.3546601819032605E-26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>9.9273030811556306E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.1066873960688095E-5</v>
+      </c>
+      <c r="D10">
+        <v>-7.5893224317488E-4</v>
+      </c>
+      <c r="E10">
+        <v>0.97561246799753298</v>
+      </c>
+      <c r="F10">
+        <v>1.28600794213819</v>
+      </c>
+      <c r="G10">
+        <v>0.19844028990365001</v>
+      </c>
+      <c r="H10">
+        <v>5.8366512432732998E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.2821760260461899E-3</v>
+      </c>
+      <c r="J10">
+        <v>-2.8124939630089E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.141797835792384</v>
+      </c>
+      <c r="L10">
+        <v>2.5329497641204002</v>
+      </c>
+      <c r="M10">
+        <v>1.1310716148474001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>0.1039108733719</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.7056533688674999E-5</v>
+      </c>
+      <c r="D11">
+        <v>7.7301661075092107E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.81836682692993E-3</v>
+      </c>
+      <c r="F11">
+        <v>1.0105647357165499</v>
+      </c>
+      <c r="G11">
+        <v>0.31222480108373402</v>
+      </c>
+      <c r="H11">
+        <v>0.147744685443635</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8.5838129038066006E-15</v>
+      </c>
+      <c r="J11">
+        <v>1.05684750210846E-2</v>
+      </c>
+      <c r="K11">
+        <v>0.580976429023629</v>
+      </c>
+      <c r="L11">
+        <v>2.6154131668058098</v>
+      </c>
+      <c r="M11">
+        <v>8.9119578404288496E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>0.137878756608008</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.3987602038955401E-8</v>
+      </c>
+      <c r="D12">
+        <v>7.2810219571878304E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.3171030190659498E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.49105173939409402</v>
+      </c>
+      <c r="G12">
+        <v>0.623389853894734</v>
+      </c>
+      <c r="H12">
+        <v>0.14659068663841601</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.38880738412037E-14</v>
+      </c>
+      <c r="J12">
+        <v>8.0971055183261101E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.2783283397527601E-5</v>
+      </c>
+      <c r="L12">
+        <v>0.63704127699283997</v>
+      </c>
+      <c r="M12">
+        <v>0.52409795731390296</v>
       </c>
     </row>
   </sheetData>
@@ -4294,12 +5465,301 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF48AD-2EB1-D148-AEB8-A0E034CE13BB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1919</v>
+      </c>
+      <c r="C2">
+        <v>0.44028376436781602</v>
+      </c>
+      <c r="D2">
+        <v>0.123189655172413</v>
+      </c>
+      <c r="E2">
+        <v>0.106282327586206</v>
+      </c>
+      <c r="F2">
+        <v>0.15935867750357399</v>
+      </c>
+      <c r="G2">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H2">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1919</v>
+      </c>
+      <c r="C3">
+        <v>0.44184668024902501</v>
+      </c>
+      <c r="D3">
+        <v>0.122816233521924</v>
+      </c>
+      <c r="E3">
+        <v>0.105906906416599</v>
+      </c>
+      <c r="F3">
+        <v>0.15961040950916799</v>
+      </c>
+      <c r="G3">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H3">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1919</v>
+      </c>
+      <c r="C4">
+        <v>0.44028335693436899</v>
+      </c>
+      <c r="D4">
+        <v>0.123652573476288</v>
+      </c>
+      <c r="E4">
+        <v>0.10651894344421001</v>
+      </c>
+      <c r="F4">
+        <v>0.160702341902624</v>
+      </c>
+      <c r="G4">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H4">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1919</v>
+      </c>
+      <c r="C5">
+        <v>0.43989710851880898</v>
+      </c>
+      <c r="D5">
+        <v>0.123718359788741</v>
+      </c>
+      <c r="E5">
+        <v>0.10657698487610499</v>
+      </c>
+      <c r="F5">
+        <v>0.16091637649673199</v>
+      </c>
+      <c r="G5">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H5">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1919</v>
+      </c>
+      <c r="C6">
+        <v>0.43984099738006999</v>
+      </c>
+      <c r="D6">
+        <v>0.12368596982563899</v>
+      </c>
+      <c r="E6">
+        <v>0.106557051224139</v>
+      </c>
+      <c r="F6">
+        <v>0.160731563047286</v>
+      </c>
+      <c r="G6">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H6">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1919</v>
+      </c>
+      <c r="C7">
+        <v>0.441027387439059</v>
+      </c>
+      <c r="D7">
+        <v>0.123437051907083</v>
+      </c>
+      <c r="E7">
+        <v>0.106262546601663</v>
+      </c>
+      <c r="F7">
+        <v>0.161373200873246</v>
+      </c>
+      <c r="G7">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H7">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1919</v>
+      </c>
+      <c r="C8">
+        <v>0.44032846518936197</v>
+      </c>
+      <c r="D8">
+        <v>0.12379865901826299</v>
+      </c>
+      <c r="E8">
+        <v>0.106568227557928</v>
+      </c>
+      <c r="F8">
+        <v>0.16154995982590201</v>
+      </c>
+      <c r="G8">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H8">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1919</v>
+      </c>
+      <c r="C9">
+        <v>0.440572244624864</v>
+      </c>
+      <c r="D9">
+        <v>0.124039094509573</v>
+      </c>
+      <c r="E9">
+        <v>0.10652426499947799</v>
+      </c>
+      <c r="F9">
+        <v>0.16450313992355201</v>
+      </c>
+      <c r="G9">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H9">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1919</v>
+      </c>
+      <c r="C10">
+        <v>0.44151622224765302</v>
+      </c>
+      <c r="D10">
+        <v>0.122889963378347</v>
+      </c>
+      <c r="E10">
+        <v>0.105938143739986</v>
+      </c>
+      <c r="F10">
+        <v>0.159744767049155</v>
+      </c>
+      <c r="G10">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H10">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1919</v>
+      </c>
+      <c r="C11">
+        <v>0.43961475558786101</v>
+      </c>
+      <c r="D11">
+        <v>0.123761584590223</v>
+      </c>
+      <c r="E11">
+        <v>0.106660003634381</v>
+      </c>
+      <c r="F11">
+        <v>0.16041883033339299</v>
+      </c>
+      <c r="G11">
+        <v>9.99000999000999E-4</v>
+      </c>
+      <c r="H11">
+        <v>9.99000999000999E-3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/supplement.xlsx
+++ b/supplement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/la466/Documents/scripts/lincRNA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liam/Documents/scripts/lincRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A863A24-1C00-7246-869F-BF3E4DF61E09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5014E5-D9AA-904D-A06A-F365EE1F0B28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="1280" windowWidth="27640" windowHeight="16940" firstSheet="11" activeTab="15" xr2:uid="{A83AC98B-25A7-6245-B518-29FF0FB3C8B5}"/>
+    <workbookView xWindow="7000" yWindow="1280" windowWidth="27640" windowHeight="16940" xr2:uid="{A83AC98B-25A7-6245-B518-29FF0FB3C8B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="Supplementary Spreadsheet 13" sheetId="14" r:id="rId14"/>
     <sheet name="Supplementary Spreadsheet 14" sheetId="15" r:id="rId15"/>
     <sheet name="Supplementary Spreadsheet 15" sheetId="16" r:id="rId16"/>
+    <sheet name="Supplementary Spreadsheet 16" sheetId="18" r:id="rId17"/>
+    <sheet name="Supplementary Spreadsheet 17" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="143">
   <si>
     <t>run_number</t>
   </si>
@@ -364,6 +366,111 @@
   </si>
   <si>
     <t>pc_diff_p</t>
+  </si>
+  <si>
+    <t>within_motifs</t>
+  </si>
+  <si>
+    <t>counts</t>
+  </si>
+  <si>
+    <t>subs</t>
+  </si>
+  <si>
+    <t>expected_subs</t>
+  </si>
+  <si>
+    <t>stop_dints</t>
+  </si>
+  <si>
+    <t>non_stop_dints</t>
+  </si>
+  <si>
+    <t>totals</t>
+  </si>
+  <si>
+    <t>chiquare_test</t>
+  </si>
+  <si>
+    <t>statistic:</t>
+  </si>
+  <si>
+    <t>p_value:</t>
+  </si>
+  <si>
+    <t>outside_motifs</t>
+  </si>
+  <si>
+    <t>average_rates</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>individual_rates</t>
+  </si>
+  <si>
+    <t>dint</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>GT</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 16</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 17</t>
+  </si>
+  <si>
+    <t>Dinucleotide substitution rates protein coding sequences</t>
+  </si>
+  <si>
+    <t>Dinucleotide substitution rates lincRNA sequences</t>
   </si>
 </sst>
 </file>
@@ -749,9 +856,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3075F3E-581B-054A-9F79-F7D7DEF3BB90}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -887,6 +994,22 @@
       </c>
       <c r="B16" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2384,12 +2507,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -2887,7 +3010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8903B0-CE2A-2545-8A2F-970F5835F5EA}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -3349,6 +3472,822 @@
       </c>
       <c r="M12">
         <v>0.52409795731390296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4B7F38-7254-804E-A128-9182237AAB97}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4">
+        <v>19084</v>
+      </c>
+      <c r="C4">
+        <v>1684</v>
+      </c>
+      <c r="D4">
+        <v>1875.0766960000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5">
+        <v>10696</v>
+      </c>
+      <c r="C5">
+        <v>1242</v>
+      </c>
+      <c r="D5">
+        <v>1050.9233039999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6">
+        <v>29780</v>
+      </c>
+      <c r="C6">
+        <v>2926</v>
+      </c>
+      <c r="D6">
+        <v>32706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9">
+        <v>54.212534060000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.7999999999999999E-13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16">
+        <v>54334</v>
+      </c>
+      <c r="C16">
+        <v>5659</v>
+      </c>
+      <c r="D16">
+        <v>6317.7857039999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17">
+        <v>122795</v>
+      </c>
+      <c r="C17">
+        <v>14937</v>
+      </c>
+      <c r="D17">
+        <v>14278.2143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18">
+        <v>177129</v>
+      </c>
+      <c r="C18">
+        <v>20596</v>
+      </c>
+      <c r="D18">
+        <v>197725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <v>99.090593400000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.41E-23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27">
+        <v>9.2539701000000002E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.138839189</v>
+      </c>
+      <c r="D27">
+        <v>-33.347564490000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28">
+        <v>0.10515564299999999</v>
+      </c>
+      <c r="C28">
+        <v>0.14362936000000001</v>
+      </c>
+      <c r="D28">
+        <v>-26.786805399999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33">
+        <v>7.9849272999999998E-2</v>
+      </c>
+      <c r="C33">
+        <v>8.7185121000000004E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34">
+        <v>0.127060074</v>
+      </c>
+      <c r="C34">
+        <v>0.14449461599999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35">
+        <v>8.9954714000000005E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.101370117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36">
+        <v>0.10053860000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.12346104199999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37">
+        <v>0.120627262</v>
+      </c>
+      <c r="C37">
+        <v>0.112851523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38">
+        <v>0.118122977</v>
+      </c>
+      <c r="C38">
+        <v>0.11483098799999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39">
+        <v>0.39772727299999999</v>
+      </c>
+      <c r="C39">
+        <v>0.41354723700000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40">
+        <v>0.1</v>
+      </c>
+      <c r="C40">
+        <v>0.101541251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41">
+        <v>8.8371376000000001E-2</v>
+      </c>
+      <c r="C41">
+        <v>0.106304079</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42">
+        <v>0.126911315</v>
+      </c>
+      <c r="C42">
+        <v>0.13250457700000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43">
+        <v>0.10743427</v>
+      </c>
+      <c r="C43">
+        <v>0.117113678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44">
+        <v>0.13319672099999999</v>
+      </c>
+      <c r="C44">
+        <v>0.13919296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45">
+        <v>9.8484848E-2</v>
+      </c>
+      <c r="C45">
+        <v>0.12214069900000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46">
+        <v>0.102915952</v>
+      </c>
+      <c r="C46">
+        <v>0.100506553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47">
+        <v>0.10603829200000001</v>
+      </c>
+      <c r="C47">
+        <v>0.10877820000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48">
+        <v>9.2696629000000003E-2</v>
+      </c>
+      <c r="C48">
+        <v>7.9878539999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471A716F-9C45-224B-9E81-788AD201FEA1}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4">
+        <v>177614</v>
+      </c>
+      <c r="C4">
+        <v>5839</v>
+      </c>
+      <c r="D4">
+        <v>6701.0309500000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5">
+        <v>103238</v>
+      </c>
+      <c r="C5">
+        <v>4757</v>
+      </c>
+      <c r="D5">
+        <v>3894.9690500000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6">
+        <v>280852</v>
+      </c>
+      <c r="C6">
+        <v>10596</v>
+      </c>
+      <c r="D6">
+        <v>291448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9">
+        <v>301.67688199999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.42E-67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16">
+        <v>393733</v>
+      </c>
+      <c r="C16">
+        <v>18717</v>
+      </c>
+      <c r="D16">
+        <v>21669.3701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17">
+        <v>978319</v>
+      </c>
+      <c r="C17">
+        <v>56483</v>
+      </c>
+      <c r="D17">
+        <v>53842.468099999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18">
+        <v>1372382</v>
+      </c>
+      <c r="C18">
+        <v>75530</v>
+      </c>
+      <c r="D18">
+        <v>1447912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <v>531.745768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.18E-117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27">
+        <v>3.8477539999999998E-2</v>
+      </c>
+      <c r="C27">
+        <v>5.9319860000000002E-2</v>
+      </c>
+      <c r="D27">
+        <v>-35.135488000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28">
+        <v>4.7667130000000002E-2</v>
+      </c>
+      <c r="C28">
+        <v>6.3144119999999998E-2</v>
+      </c>
+      <c r="D28">
+        <v>-24.510587000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33">
+        <v>3.4391209999999998E-2</v>
+      </c>
+      <c r="C33">
+        <v>4.1123079999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34">
+        <v>5.488345E-2</v>
+      </c>
+      <c r="C34">
+        <v>6.3889970000000004E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35">
+        <v>3.8220329999999997E-2</v>
+      </c>
+      <c r="C35">
+        <v>5.0999330000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36">
+        <v>5.0176930000000002E-2</v>
+      </c>
+      <c r="C36">
+        <v>5.9785199999999997E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37">
+        <v>4.3248950000000001E-2</v>
+      </c>
+      <c r="C37">
+        <v>5.1906470000000003E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38">
+        <v>4.394733E-2</v>
+      </c>
+      <c r="C38">
+        <v>5.2520310000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39">
+        <v>0.20722892000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.16618905</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40">
+        <v>4.242307E-2</v>
+      </c>
+      <c r="C40">
+        <v>4.809795E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41">
+        <v>2.387384E-2</v>
+      </c>
+      <c r="C41">
+        <v>3.3846510000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42">
+        <v>4.4427710000000002E-2</v>
+      </c>
+      <c r="C42">
+        <v>5.3490210000000003E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43">
+        <v>3.4183350000000001E-2</v>
+      </c>
+      <c r="C43">
+        <v>4.8839819999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44">
+        <v>4.4096129999999997E-2</v>
+      </c>
+      <c r="C44">
+        <v>5.9592939999999997E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45">
+        <v>5.2694610000000003E-2</v>
+      </c>
+      <c r="C45">
+        <v>6.1016819999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46">
+        <v>4.3252270000000002E-2</v>
+      </c>
+      <c r="C46">
+        <v>4.760549E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47">
+        <v>4.3207710000000003E-2</v>
+      </c>
+      <c r="C47">
+        <v>5.1349880000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48">
+        <v>4.4650380000000003E-2</v>
+      </c>
+      <c r="C48">
+        <v>4.2667919999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4264,7 +5203,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/supplement.xlsx
+++ b/supplement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liam/Documents/scripts/lincRNA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/la466/Documents/scripts/lincRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5014E5-D9AA-904D-A06A-F365EE1F0B28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5703619F-060F-A347-A4B3-5D21F15A7C20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7000" yWindow="1280" windowWidth="27640" windowHeight="16940" xr2:uid="{A83AC98B-25A7-6245-B518-29FF0FB3C8B5}"/>
   </bookViews>
@@ -31,6 +31,7 @@
     <sheet name="Supplementary Spreadsheet 15" sheetId="16" r:id="rId16"/>
     <sheet name="Supplementary Spreadsheet 16" sheetId="18" r:id="rId17"/>
     <sheet name="Supplementary Spreadsheet 17" sheetId="17" r:id="rId18"/>
+    <sheet name="Supplementary Spreadsheet 18" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="161">
   <si>
     <t>run_number</t>
   </si>
@@ -471,6 +472,60 @@
   </si>
   <si>
     <t>Dinucleotide substitution rates lincRNA sequences</t>
+  </si>
+  <si>
+    <t>ESE</t>
+  </si>
+  <si>
+    <t>Non-ESE</t>
+  </si>
+  <si>
+    <t>ESE stops</t>
+  </si>
+  <si>
+    <t>ESE non-stops</t>
+  </si>
+  <si>
+    <t>Non ESE stops</t>
+  </si>
+  <si>
+    <t>Non ESE non-stops</t>
+  </si>
+  <si>
+    <t>ESE diff</t>
+  </si>
+  <si>
+    <t>Non ESE diff</t>
+  </si>
+  <si>
+    <t>LogDiffRatio</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>median sim</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>lincrna_int3</t>
+  </si>
+  <si>
+    <t>lincrna_RESCUE</t>
+  </si>
+  <si>
+    <t>protein_coding_int3</t>
+  </si>
+  <si>
+    <t>Supplementary Spreadsheet 18</t>
+  </si>
+  <si>
+    <t>Subsitution rate tests</t>
   </si>
 </sst>
 </file>
@@ -856,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3075F3E-581B-054A-9F79-F7D7DEF3BB90}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,6 +1065,14 @@
       </c>
       <c r="B18" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4295,6 +4358,394 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873DF514-708F-8345-A9A5-31492446BCBA}">
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>149</v>
+      </c>
+      <c r="T1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>153</v>
+      </c>
+      <c r="R2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T2" t="s">
+        <v>153</v>
+      </c>
+      <c r="U2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V2" t="s">
+        <v>155</v>
+      </c>
+      <c r="W2" t="s">
+        <v>153</v>
+      </c>
+      <c r="X2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3">
+        <v>1.8157929999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.8556950000000003E-2</v>
+      </c>
+      <c r="D3">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="E3">
+        <v>6.098257E-2</v>
+      </c>
+      <c r="F3">
+        <v>5.9650549999999997E-2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1.3717419999999999E-2</v>
+      </c>
+      <c r="I3">
+        <v>5.1089290000000002E-2</v>
+      </c>
+      <c r="J3">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="K3">
+        <v>1.846822E-2</v>
+      </c>
+      <c r="L3">
+        <v>5.9408009999999997E-2</v>
+      </c>
+      <c r="M3">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="N3">
+        <v>5.2315109999999998E-2</v>
+      </c>
+      <c r="O3">
+        <v>5.211934E-2</v>
+      </c>
+      <c r="P3">
+        <v>0.79920080000000004</v>
+      </c>
+      <c r="Q3">
+        <v>6.2220039999999997E-2</v>
+      </c>
+      <c r="R3">
+        <v>6.0756190000000002E-2</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>-4.7508000000000003E-3</v>
+      </c>
+      <c r="U3">
+        <v>-8.2590000000000007E-3</v>
+      </c>
+      <c r="V3">
+        <v>2.9970030000000002E-2</v>
+      </c>
+      <c r="W3">
+        <v>-9.9048999999999995E-3</v>
+      </c>
+      <c r="X3">
+        <v>-8.6362000000000001E-3</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>-0.73471909999999996</v>
+      </c>
+      <c r="AA3">
+        <v>-4.2524300000000001E-2</v>
+      </c>
+      <c r="AB3">
+        <v>1.7982020000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4">
+        <v>2.3972110000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.8297920000000003E-2</v>
+      </c>
+      <c r="D4">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="E4">
+        <v>6.1964560000000002E-2</v>
+      </c>
+      <c r="F4">
+        <v>5.98051E-2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1.769658E-2</v>
+      </c>
+      <c r="I4">
+        <v>5.0779709999999999E-2</v>
+      </c>
+      <c r="J4">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="K4">
+        <v>2.4549049999999999E-2</v>
+      </c>
+      <c r="L4">
+        <v>5.9237449999999997E-2</v>
+      </c>
+      <c r="M4">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="N4">
+        <v>5.2932880000000002E-2</v>
+      </c>
+      <c r="O4">
+        <v>5.2249789999999997E-2</v>
+      </c>
+      <c r="P4">
+        <v>0.98301698000000004</v>
+      </c>
+      <c r="Q4">
+        <v>6.3071710000000003E-2</v>
+      </c>
+      <c r="R4">
+        <v>6.087675E-2</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>-6.8525000000000001E-3</v>
+      </c>
+      <c r="U4">
+        <v>-8.5106000000000001E-3</v>
+      </c>
+      <c r="V4">
+        <v>8.3916080000000004E-2</v>
+      </c>
+      <c r="W4">
+        <v>-1.01388E-2</v>
+      </c>
+      <c r="X4">
+        <v>-8.6285000000000008E-3</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>-0.39176329999999998</v>
+      </c>
+      <c r="AA4">
+        <v>-1.45459E-2</v>
+      </c>
+      <c r="AB4">
+        <v>3.7962040000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5">
+        <v>7.2138499999999999E-3</v>
+      </c>
+      <c r="C5">
+        <v>2.582394E-2</v>
+      </c>
+      <c r="D5">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="E5">
+        <v>2.848469E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.720883E-2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>5.9094500000000001E-3</v>
+      </c>
+      <c r="I5">
+        <v>2.2599129999999999E-2</v>
+      </c>
+      <c r="J5">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="K5">
+        <v>7.3069900000000002E-3</v>
+      </c>
+      <c r="L5">
+        <v>2.6106799999999999E-2</v>
+      </c>
+      <c r="M5">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="N5">
+        <v>2.478079E-2</v>
+      </c>
+      <c r="O5">
+        <v>2.413233E-2</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>2.8833950000000001E-2</v>
+      </c>
+      <c r="R5">
+        <v>2.7522749999999999E-2</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>-1.3975000000000001E-3</v>
+      </c>
+      <c r="U5">
+        <v>-3.5138000000000001E-3</v>
+      </c>
+      <c r="V5">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="W5">
+        <v>-4.0531999999999999E-3</v>
+      </c>
+      <c r="X5">
+        <v>-3.3911000000000002E-3</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>-1.0647846999999999</v>
+      </c>
+      <c r="AA5">
+        <v>3.6300289999999999E-2</v>
+      </c>
+      <c r="AB5">
+        <v>9.990000000000001E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10DEDB9-94DD-F04E-8F1C-E72F60C298F7}">
   <dimension ref="A1:H11"/>

--- a/supplement.xlsx
+++ b/supplement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/la466/Documents/scripts/lincRNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5703619F-060F-A347-A4B3-5D21F15A7C20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BAD6FA-AE09-1E4E-ACCB-8E2792CCF647}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7000" yWindow="1280" windowWidth="27640" windowHeight="16940" xr2:uid="{A83AC98B-25A7-6245-B518-29FF0FB3C8B5}"/>
+    <workbookView xWindow="5960" yWindow="1280" windowWidth="27640" windowHeight="16940" xr2:uid="{A83AC98B-25A7-6245-B518-29FF0FB3C8B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="2" r:id="rId1"/>
@@ -532,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -551,6 +551,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -591,12 +599,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,10 +941,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -948,10 +957,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -964,10 +973,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -980,10 +989,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1052,26 +1061,26 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>160</v>
       </c>
     </row>
